--- a/数据整理/stocks/A股/深证主板/002967-广电计量.xlsx
+++ b/数据整理/stocks/A股/深证主板/002967-广电计量.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>18.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.31</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.09</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5611</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>530019</t>
+          <t>007355</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信社会责任混合</t>
+          <t>汇添富科技创新灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>81.67</t>
+          <t>11.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3797</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005259</t>
+          <t>002419</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信龙头企业股票</t>
+          <t>汇添富盈安灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2108</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>88.31</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.38</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001532</t>
+          <t>007356</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安文体健康主题灵活配置混合</t>
+          <t>汇添富科技创新灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.19</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002419</t>
+          <t>005259</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富盈安灵活配置混合</t>
+          <t>建信龙头企业股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -670,15 +740,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>88.83</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>5.24</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008213</t>
+          <t>001532</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏新起点灵活配置混合C</t>
+          <t>华安文体健康主题灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>88.83</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007355</t>
+          <t>530019</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富科技创新灵活配置混合A</t>
+          <t>建信社会责任混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.91</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>81.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -744,25 +844,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007356</t>
+          <t>003092</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇添富科技创新灵活配置混合C</t>
+          <t>华商丰利增强定期开放债券A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.91</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -772,25 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003092</t>
+          <t>003093</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华商丰利增强定期开放债券A</t>
+          <t>华商丰利增强定期开放债券C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>20.37</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>0.59</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>10</v>
       </c>
     </row>
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>003093</t>
+          <t>008213</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华商丰利增强定期开放债券C</t>
+          <t>华夏新起点灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>20.37</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -854,15 +984,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>570008</t>
+          <t>010595</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺德周期策略混合</t>
+          <t>广发成长精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>112.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>51.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6780</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -902,25 +1052,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>270050</t>
+          <t>270005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发新经济混合A</t>
+          <t>广发聚丰混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>58.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0258</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010134</t>
+          <t>570008</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发新经济混合C</t>
+          <t>诺德周期策略混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>16.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0112</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005290</t>
+          <t>270050</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>诺德新盛灵活配置混合A</t>
+          <t>广发新经济混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.36</t>
+          <t>25.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8569</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009710</t>
+          <t>007750</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>诺德新盛灵活配置混合C</t>
+          <t>广发优势增长股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.36</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2746</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1024,15 +1214,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>77.12</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.30</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>270005</t>
+          <t>010596</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发聚丰混合A</t>
+          <t>广发成长精选混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>51.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1304</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010025</t>
+          <t>570006</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发聚丰混合C</t>
+          <t>诺德中小盘混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010595</t>
+          <t>010134</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发成长精选混合A</t>
+          <t>广发新经济混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>51.23</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010596</t>
+          <t>010025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发成长精选混合C</t>
+          <t>广发聚丰混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>51.23</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>570006</t>
+          <t>005290</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>诺德中小盘混合</t>
+          <t>诺德新盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90.45</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007750</t>
+          <t>009710</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发优势增长股票</t>
+          <t>诺德新盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002967-广电计量.xlsx
+++ b/数据整理/stocks/A股/深证主板/002967-广电计量.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1467,4 +1468,744 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1009</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>101.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9443</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1948</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7534</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6644</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2444</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5297</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2959</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2067</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002967-广电计量.xlsx
+++ b/数据整理/stocks/A股/深证主板/002967-广电计量.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2208,4 +2209,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9635</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9099</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6041</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159846</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信中证1000交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002967-广电计量.xlsx
+++ b/数据整理/stocks/A股/深证主板/002967-广电计量.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2569,4 +2570,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002967-广电计量.xlsx
+++ b/数据整理/stocks/A股/深证主板/002967-广电计量.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2578,7 +2579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2589,17 +2590,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2609,14 +2630,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.5</v>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0280</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2625,14 +2668,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.12</v>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9548</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2641,14 +2706,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7018</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>7.21</v>
+        <v>17.12</v>
       </c>
     </row>
     <row r="5">
@@ -2657,13 +2828,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>12</v>
       </c>
       <c r="D5" t="n">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.64</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002967-广电计量.xlsx
+++ b/数据整理/stocks/A股/深证主板/002967-广电计量.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2749,7 +2750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2760,17 +2761,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2780,14 +2801,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6518</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>4.68</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="3">
@@ -2796,14 +2891,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>4.5</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="4">
@@ -2812,14 +2907,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>17.12</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="5">
@@ -2828,14 +2923,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>7.21</v>
+        <v>17.12</v>
       </c>
     </row>
     <row r="6">
@@ -2844,13 +2939,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>12</v>
       </c>
       <c r="D6" t="n">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.64</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002967-广电计量.xlsx
+++ b/数据整理/stocks/A股/深证主板/002967-广电计量.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2844,7 +2845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2855,17 +2856,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2875,14 +2896,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.65</v>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2358</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2891,14 +2934,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.68</v>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5080</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2907,14 +2972,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>014412</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3536</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.5</v>
       </c>
     </row>
     <row r="5">
@@ -2923,14 +3010,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>014413</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>17.12</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6">
@@ -2939,14 +3148,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>7.21</v>
+        <v>17.12</v>
       </c>
     </row>
     <row r="7">
@@ -2955,13 +3164,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>12</v>
       </c>
       <c r="D7" t="n">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
         <v>1.64</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002967-广电计量.xlsx
+++ b/数据整理/stocks/A股/深证主板/002967-广电计量.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>3.23</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.65</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>4.68</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>4.5</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>17.12</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>7.21</v>
+        <v>17.12</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>12</v>
       </c>
       <c r="D8" t="n">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" t="n">
         <v>1.64</v>
       </c>
     </row>
@@ -600,6 +617,516 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3384</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015182</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合D</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8436</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8321</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001816</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015784</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014509</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014508</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002164</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015785</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015181</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014536</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -807,7 +1334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -901,7 +1428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1071,7 +1598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1431,7 +1958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2171,7 +2698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2683,7 +3210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002967-广电计量.xlsx
+++ b/数据整理/stocks/A股/深证主板/002967-广电计量.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>4.36</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>3.23</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.65</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>4.68</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>4.5</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>17.12</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>7.21</v>
+        <v>17.12</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>12</v>
       </c>
       <c r="D9" t="n">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>12</v>
+      </c>
+      <c r="D10" t="n">
         <v>1.64</v>
       </c>
     </row>
@@ -616,7 +633,689 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5611</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3797</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2108</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005259</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信龙头企业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>530019</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信社会责任混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003092</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商丰利增强定期开放债券A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003093</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商丰利增强定期开放债券C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014536</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1126,7 +1825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1334,7 +2033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1428,7 +2127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1598,7 +2297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1958,7 +2657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2698,7 +3397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3208,516 +3907,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>470098</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富逆向投资混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.16</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5611</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007355</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富科技创新灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.72</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.91</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3797</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002419</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富盈安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2108</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001277</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时国企改革主题股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.31</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1626</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007356</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富科技创新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.91</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1118</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005259</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>建信龙头企业股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0875</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002604</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华夏新起点灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.83</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0519</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001532</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华安文体健康主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.19</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0510</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>530019</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>建信社会责任混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>81.67</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003092</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华商丰利增强定期开放债券A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>20.37</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003093</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华商丰利增强定期开放债券C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>20.37</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008213</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华夏新起点灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>88.83</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>